--- a/output/poportion4.xlsx
+++ b/output/poportion4.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1249156900888766</v>
+        <v>0.07233599062624546</v>
       </c>
       <c r="D2">
-        <v>0.1116044055599157</v>
+        <v>0.08784534600019929</v>
       </c>
       <c r="E2">
-        <v>0.02924409720432053</v>
+        <v>0.00476652437770103</v>
       </c>
       <c r="F2">
-        <v>0.02193791227966043</v>
+        <v>0.02111356320837401</v>
       </c>
       <c r="G2">
-        <v>0.0521302251709016</v>
+        <v>0.07870719805385633</v>
       </c>
       <c r="H2">
-        <v>0.03882064937110027</v>
+        <v>0.03535697703581735</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1249156900888766</v>
+        <v>0.07233599062624546</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1379056150790582</v>
+        <v>0.1588812633732024</v>
       </c>
       <c r="E3">
-        <v>0.03165810049925166</v>
+        <v>0.03435072422727361</v>
       </c>
       <c r="F3">
-        <v>0.01901659064316508</v>
+        <v>0.0003870021822149482</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1196676056912153</v>
+        <v>0.1224062210241295</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1116044055599157</v>
+        <v>0.08784534600019929</v>
       </c>
       <c r="C4">
-        <v>0.1379056150790582</v>
+        <v>0.1588812633732024</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02291733845527045</v>
+        <v>0.02189964217457472</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1344789230546136</v>
+        <v>0.1048328676364467</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02924409720432053</v>
+        <v>0.00476652437770103</v>
       </c>
       <c r="C5">
-        <v>0.03165810049925166</v>
+        <v>0.03435072422727361</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.01435657917958803</v>
+        <v>0.003754094230284706</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03212716709804591</v>
+        <v>0.07019116707583876</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02193791227966043</v>
+        <v>0.02111356320837401</v>
       </c>
       <c r="C6">
-        <v>0.01901659064316508</v>
+        <v>0.0003870021822149482</v>
       </c>
       <c r="D6">
-        <v>0.02291733845527045</v>
+        <v>0.02189964217457472</v>
       </c>
       <c r="E6">
-        <v>0.01435657917958803</v>
+        <v>0.003754094230284706</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02490878339694334</v>
+        <v>0.0245859388350796</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0521302251709016</v>
+        <v>0.07870719805385633</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03882064937110027</v>
+        <v>0.03535697703581735</v>
       </c>
       <c r="C8">
-        <v>0.1196676056912153</v>
+        <v>0.1224062210241295</v>
       </c>
       <c r="D8">
-        <v>0.1344789230546136</v>
+        <v>0.1048328676364467</v>
       </c>
       <c r="E8">
-        <v>0.03212716709804591</v>
+        <v>0.07019116707583876</v>
       </c>
       <c r="F8">
-        <v>0.02490878339694334</v>
+        <v>0.0245859388350796</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/output/poportion4.xlsx
+++ b/output/poportion4.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07233599062624546</v>
+        <v>0.1780489684948579</v>
       </c>
       <c r="D2">
-        <v>0.08784534600019929</v>
+        <v>0.077879382228596</v>
       </c>
       <c r="E2">
-        <v>0.00476652437770103</v>
+        <v>0.005415291967330834</v>
       </c>
       <c r="F2">
-        <v>0.02111356320837401</v>
+        <v>0.02354400292262338</v>
       </c>
       <c r="G2">
-        <v>0.07870719805385633</v>
+        <v>0.07097701889632911</v>
       </c>
       <c r="H2">
-        <v>0.03535697703581735</v>
+        <v>0.04230143859663612</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07233599062624546</v>
+        <v>0.1780489684948579</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1588812633732024</v>
+        <v>0.2104563280993713</v>
       </c>
       <c r="E3">
-        <v>0.03435072422727361</v>
+        <v>0.0007553708784830134</v>
       </c>
       <c r="F3">
-        <v>0.0003870021822149482</v>
+        <v>0.04068815788426147</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0606224693384049</v>
       </c>
       <c r="H3">
-        <v>0.1224062210241295</v>
+        <v>0.1593781281396901</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08784534600019929</v>
+        <v>0.077879382228596</v>
       </c>
       <c r="C4">
-        <v>0.1588812633732024</v>
+        <v>0.2104563280993713</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.02189964217457472</v>
+        <v>0.06152255670114227</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1048328676364467</v>
+        <v>0.1748301527661371</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00476652437770103</v>
+        <v>0.005415291967330834</v>
       </c>
       <c r="C5">
-        <v>0.03435072422727361</v>
+        <v>0.0007553708784830134</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.003754094230284706</v>
+        <v>0.01629758137167437</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.02717398070339247</v>
       </c>
       <c r="H5">
-        <v>0.07019116707583876</v>
+        <v>0.008013801327189256</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02111356320837401</v>
+        <v>0.02354400292262338</v>
       </c>
       <c r="C6">
-        <v>0.0003870021822149482</v>
+        <v>0.04068815788426147</v>
       </c>
       <c r="D6">
-        <v>0.02189964217457472</v>
+        <v>0.06152255670114227</v>
       </c>
       <c r="E6">
-        <v>0.003754094230284706</v>
+        <v>0.01629758137167437</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.05779164027284329</v>
       </c>
       <c r="H6">
-        <v>0.0245859388350796</v>
+        <v>0.03477491580057568</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,19 +556,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07870719805385633</v>
+        <v>0.07097701889632911</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0606224693384049</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02717398070339247</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05779164027284329</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03535697703581735</v>
+        <v>0.04230143859663612</v>
       </c>
       <c r="C8">
-        <v>0.1224062210241295</v>
+        <v>0.1593781281396901</v>
       </c>
       <c r="D8">
-        <v>0.1048328676364467</v>
+        <v>0.1748301527661371</v>
       </c>
       <c r="E8">
-        <v>0.07019116707583876</v>
+        <v>0.008013801327189256</v>
       </c>
       <c r="F8">
-        <v>0.0245859388350796</v>
+        <v>0.03477491580057568</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/output/poportion4.xlsx
+++ b/output/poportion4.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1780489684948579</v>
+        <v>0.1679075194168685</v>
       </c>
       <c r="D2">
-        <v>0.077879382228596</v>
+        <v>0.06630438849393927</v>
       </c>
       <c r="E2">
-        <v>0.005415291967330834</v>
+        <v>0.00887987672328017</v>
       </c>
       <c r="F2">
-        <v>0.02354400292262338</v>
+        <v>0.02525143430120318</v>
       </c>
       <c r="G2">
-        <v>0.07097701889632911</v>
+        <v>0.0751475712692614</v>
       </c>
       <c r="H2">
-        <v>0.04230143859663612</v>
+        <v>0.0623285102001556</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1780489684948579</v>
+        <v>0.1679075194168685</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2104563280993713</v>
+        <v>0.1830523995470787</v>
       </c>
       <c r="E3">
-        <v>0.0007553708784830134</v>
+        <v>0.0008701075774246506</v>
       </c>
       <c r="F3">
-        <v>0.04068815788426147</v>
+        <v>0.0609938844272815</v>
       </c>
       <c r="G3">
-        <v>0.0606224693384049</v>
+        <v>0.07637899075882264</v>
       </c>
       <c r="H3">
-        <v>0.1593781281396901</v>
+        <v>0.1430253259955615</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.077879382228596</v>
+        <v>0.06630438849393927</v>
       </c>
       <c r="C4">
-        <v>0.2104563280993713</v>
+        <v>0.1830523995470787</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.06152255670114227</v>
+        <v>0.04070474986597354</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0001917913310318374</v>
       </c>
       <c r="H4">
-        <v>0.1748301527661371</v>
+        <v>0.1837406189121141</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005415291967330834</v>
+        <v>0.00887987672328017</v>
       </c>
       <c r="C5">
-        <v>0.0007553708784830134</v>
+        <v>0.0008701075774246506</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.01629758137167437</v>
+        <v>0.006566764448054788</v>
       </c>
       <c r="G5">
-        <v>0.02717398070339247</v>
+        <v>0.03701456310679611</v>
       </c>
       <c r="H5">
-        <v>0.008013801327189256</v>
+        <v>0.006183319248294483</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02354400292262338</v>
+        <v>0.02525143430120318</v>
       </c>
       <c r="C6">
-        <v>0.04068815788426147</v>
+        <v>0.0609938844272815</v>
       </c>
       <c r="D6">
-        <v>0.06152255670114227</v>
+        <v>0.04070474986597354</v>
       </c>
       <c r="E6">
-        <v>0.01629758137167437</v>
+        <v>0.006566764448054788</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05779164027284329</v>
+        <v>0.05861424115100585</v>
       </c>
       <c r="H6">
-        <v>0.03477491580057568</v>
+        <v>0.05850229686670702</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,19 +556,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07097701889632911</v>
+        <v>0.0751475712692614</v>
       </c>
       <c r="C7">
-        <v>0.0606224693384049</v>
+        <v>0.07637899075882264</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0001917913310318374</v>
       </c>
       <c r="E7">
-        <v>0.02717398070339247</v>
+        <v>0.03701456310679611</v>
       </c>
       <c r="F7">
-        <v>0.05779164027284329</v>
+        <v>0.05861424115100585</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -582,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04230143859663612</v>
+        <v>0.0623285102001556</v>
       </c>
       <c r="C8">
-        <v>0.1593781281396901</v>
+        <v>0.1430253259955615</v>
       </c>
       <c r="D8">
-        <v>0.1748301527661371</v>
+        <v>0.1837406189121141</v>
       </c>
       <c r="E8">
-        <v>0.008013801327189256</v>
+        <v>0.006183319248294483</v>
       </c>
       <c r="F8">
-        <v>0.03477491580057568</v>
+        <v>0.05850229686670702</v>
       </c>
       <c r="G8">
         <v>0</v>
